--- a/biology/Écologie/Sécheresse_nord-américaine_de_2020_à_2022/Sécheresse_nord-américaine_de_2020_à_2022.xlsx
+++ b/biology/Écologie/Sécheresse_nord-américaine_de_2020_à_2022/Sécheresse_nord-américaine_de_2020_à_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9cheresse_nord-am%C3%A9ricaine_de_2020_%C3%A0_2022</t>
+          <t>Sécheresse_nord-américaine_de_2020_à_2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sécheresse nord-américaine de 2020 à 2022 s'est développée dans l'Ouest, le Midwest et le Nord-Est des États-Unis au cours de l'été 2020[1]. En même temps, plus de 90 % de l'Utah, du Colorado, du Nevada et du Nouveau-Mexique connaissaient certains niveaux de sécheresse[2]. Le Wyoming, l'Oregon et l'Arizona ont également connu des conditions de sécheresse.
-Au cours de 2021, les conditions se sont améliorées dans le nord-est mais se sont aggravées dans l'ouest des États-Unis. En juin 2021, presque toute la région (97 %) [était] confrontée à des conditions anormalement sèches[3]. La sécheresse a également touché une vaste région du Mexique en 2021, ainsi que les prairies canadiennes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sécheresse nord-américaine de 2020 à 2022 s'est développée dans l'Ouest, le Midwest et le Nord-Est des États-Unis au cours de l'été 2020. En même temps, plus de 90 % de l'Utah, du Colorado, du Nevada et du Nouveau-Mexique connaissaient certains niveaux de sécheresse. Le Wyoming, l'Oregon et l'Arizona ont également connu des conditions de sécheresse.
+Au cours de 2021, les conditions se sont améliorées dans le nord-est mais se sont aggravées dans l'ouest des États-Unis. En juin 2021, presque toute la région (97 %) [était] confrontée à des conditions anormalement sèches. La sécheresse a également touché une vaste région du Mexique en 2021, ainsi que les prairies canadiennes.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9cheresse_nord-am%C3%A9ricaine_de_2020_%C3%A0_2022</t>
+          <t>Sécheresse_nord-américaine_de_2020_à_2022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les conditions de sécheresse de 2020 ont été associées à un épisode La Niña modéré qui s'était développé dans l'océan Pacifique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les conditions de sécheresse de 2020 ont été associées à un épisode La Niña modéré qui s'était développé dans l'océan Pacifique.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9cheresse_nord-am%C3%A9ricaine_de_2020_%C3%A0_2022</t>
+          <t>Sécheresse_nord-américaine_de_2020_à_2022</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,18 +559,135 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">États-Unis
-Ouest et Midwest
-À l'automne 2020, la sécheresse dans les États de l'Ouest était la pire depuis la sécheresse de 2013[5]. La sécheresse de 2020-2021 a été décrite par certains comme peut-être la pire sécheresse de l'histoire moderne pour l'ouest des États-Unis[6]. À la fin du printemps 2021, les conditions sèches s'étaient étendues à presque tout l'État de Californie et au Nevada voisin[7].
-Dans le Midwest, l'Iowa a reçu des pluies généralisées en septembre 2020 ce qui a amélioré les conditions dans l'Est de l'État[7],[8]. Mais la moitié ouest de l'État a fait face à des problèmes de sécheresse graves à extrêmes qui se sont prolongés au-delà de 2020 et jusqu'en 2021. Cependant, fin avril et début mai 2021, le nord, le centre et le nord-est de l'Iowa étaient retombés dans des conditions sèches[9]. À la mi-août 2021, les problèmes de sécheresse dans l'Iowa s'étaient aggravés. Certaines régions ont été touchées par des conditions extrêmes le 13 août. Les régions du nord-ouest et du centre-est de l'Iowa ont été particulièrement touchées par des conditions de sécheresse extrême à la mi-août[10],[11].
-Les sécheresses de 2020 à 2022 ont également touché le Michigan, le sud du Wisconsin, la majeure partie du Dakota du Nord et le nord-ouest du Dakota du Sud[12]. Le 12 août 2021, le Minnesota connaissait les pires périodes de sécheresse depuis celle de 1988 à 1990[13]. Un peu plus de 7 % de l'État, en particulier, neuf comtés du nord-ouest connurent une sécheresse exceptionnelle, la première fois depuis 1988[14]. Les conditions au Minnesota en 2021 sont comparables à la vague de chaleur nord-américaine de 1936[15].
-Nord-est et Sud-est
-Fin août/début septembre 2020, les conditions de sécheresse dans plusieurs régions des États-Unis s'étaient aggravées. Les États de la Nouvelle-Angleterre et New York ont également connu des conditions de sécheresse sévères à extrêmes[16]. Les conditions sont revenus à la normale au début juin 2021[17].
-En juin 2021, des conditions de sécheresse modérées s'étaient développées en Virginie, dans les Carolines et en Floride[18].
-Mexique
-En avril 2021, le Mexique était confronté à l'une des sécheresses les plus répandues de son histoire, 85 % du pays connaissant des conditions de sécheresse. En mars/avril 2022, 30% du Mexique, en particulier le nord, avait encore des problèmes de sécheresse graves, critiques et majeurs.
-Canada
-Au printemps 2021, une sécheresse extrême menaçait les Prairies canadiennes au Manitoba et en Saskatchewan, après un automne et un printemps anormalement secs[19].
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Ouest et Midwest</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'automne 2020, la sécheresse dans les États de l'Ouest était la pire depuis la sécheresse de 2013. La sécheresse de 2020-2021 a été décrite par certains comme peut-être la pire sécheresse de l'histoire moderne pour l'ouest des États-Unis. À la fin du printemps 2021, les conditions sèches s'étaient étendues à presque tout l'État de Californie et au Nevada voisin.
+Dans le Midwest, l'Iowa a reçu des pluies généralisées en septembre 2020 ce qui a amélioré les conditions dans l'Est de l'État,. Mais la moitié ouest de l'État a fait face à des problèmes de sécheresse graves à extrêmes qui se sont prolongés au-delà de 2020 et jusqu'en 2021. Cependant, fin avril et début mai 2021, le nord, le centre et le nord-est de l'Iowa étaient retombés dans des conditions sèches. À la mi-août 2021, les problèmes de sécheresse dans l'Iowa s'étaient aggravés. Certaines régions ont été touchées par des conditions extrêmes le 13 août. Les régions du nord-ouest et du centre-est de l'Iowa ont été particulièrement touchées par des conditions de sécheresse extrême à la mi-août,.
+Les sécheresses de 2020 à 2022 ont également touché le Michigan, le sud du Wisconsin, la majeure partie du Dakota du Nord et le nord-ouest du Dakota du Sud. Le 12 août 2021, le Minnesota connaissait les pires périodes de sécheresse depuis celle de 1988 à 1990. Un peu plus de 7 % de l'État, en particulier, neuf comtés du nord-ouest connurent une sécheresse exceptionnelle, la première fois depuis 1988. Les conditions au Minnesota en 2021 sont comparables à la vague de chaleur nord-américaine de 1936.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sécheresse_nord-américaine_de_2020_à_2022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9cheresse_nord-am%C3%A9ricaine_de_2020_%C3%A0_2022</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Progression</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nord-est et Sud-est</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin août/début septembre 2020, les conditions de sécheresse dans plusieurs régions des États-Unis s'étaient aggravées. Les États de la Nouvelle-Angleterre et New York ont également connu des conditions de sécheresse sévères à extrêmes. Les conditions sont revenus à la normale au début juin 2021.
+En juin 2021, des conditions de sécheresse modérées s'étaient développées en Virginie, dans les Carolines et en Floride.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sécheresse_nord-américaine_de_2020_à_2022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9cheresse_nord-am%C3%A9ricaine_de_2020_%C3%A0_2022</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Progression</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mexique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En avril 2021, le Mexique était confronté à l'une des sécheresses les plus répandues de son histoire, 85 % du pays connaissant des conditions de sécheresse. En mars/avril 2022, 30% du Mexique, en particulier le nord, avait encore des problèmes de sécheresse graves, critiques et majeurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sécheresse_nord-américaine_de_2020_à_2022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9cheresse_nord-am%C3%A9ricaine_de_2020_%C3%A0_2022</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Progression</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au printemps 2021, une sécheresse extrême menaçait les Prairies canadiennes au Manitoba et en Saskatchewan, après un automne et un printemps anormalement secs.
 </t>
         </is>
       </c>
